--- a/data/trans_orig/P75-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P75-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65D9DBA6-A567-45A9-A5CA-8DC399FB11CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27052463-1D00-4AAC-9320-270C5A6A7FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{473D6675-45D8-405D-B220-EE786403A31A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{48126D0A-899C-4E36-8F4E-EF065FEC6971}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
   <si>
     <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2012 (Tasa respuesta: 98,85%)</t>
   </si>
@@ -75,229 +75,229 @@
     <t>23,45%</t>
   </si>
   <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
   </si>
   <si>
     <t>79,27%</t>
   </si>
   <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
     <t>72,62%</t>
   </si>
   <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
   </si>
   <si>
     <t>26,35%</t>
   </si>
   <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
   </si>
   <si>
     <t>26,63%</t>
   </si>
   <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
   </si>
   <si>
     <t>73,65%</t>
   </si>
   <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
   </si>
   <si>
     <t>73,1%</t>
   </si>
   <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
   </si>
   <si>
     <t>73,37%</t>
   </si>
   <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,205 +309,211 @@
     <t>16,92%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
   </si>
   <si>
     <t>85,94%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>85,18%</t>
   </si>
   <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
   </si>
 </sst>
 </file>
@@ -919,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C327BF3-168D-48D5-89A5-B35FE4174D50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8800370B-7D84-47F0-B829-4FBAE4C710E6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1670,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A72D405-BB4D-4594-8481-8CAA455C80B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD4ADFD-93ED-4355-A23A-E12D630E0965}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2259,13 +2265,13 @@
         <v>475008</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>500</v>
@@ -2274,13 +2280,13 @@
         <v>523532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>954</v>
@@ -2289,13 +2295,13 @@
         <v>998540</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,13 +2316,13 @@
         <v>2902610</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>2826</v>
@@ -2325,13 +2331,13 @@
         <v>3008568</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>5587</v>
@@ -2340,13 +2346,13 @@
         <v>5911178</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P75-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P75-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27052463-1D00-4AAC-9320-270C5A6A7FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E663DE2-0427-4D63-BB15-434EC54780F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{48126D0A-899C-4E36-8F4E-EF065FEC6971}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF2DCC41-895F-4D6E-BC38-4B7BFC808FC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
   <si>
     <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2012 (Tasa respuesta: 98,85%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>23,45%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
   </si>
   <si>
     <t>22,06%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>76,55%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
   </si>
   <si>
     <t>77,94%</t>
   </si>
   <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
   <si>
     <t>77,35%</t>
   </si>
   <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>28,22%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
   </si>
   <si>
     <t>30,44%</t>
   </si>
   <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
   </si>
   <si>
     <t>71,78%</t>
   </si>
   <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,325 +195,331 @@
     <t>24,52%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
   </si>
   <si>
     <t>27,38%</t>
   </si>
   <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
   </si>
   <si>
     <t>75,48%</t>
   </si>
   <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>72,62%</t>
   </si>
   <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
   </si>
   <si>
     <t>26,35%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
   </si>
   <si>
     <t>26,63%</t>
   </si>
   <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>73,65%</t>
   </si>
   <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
   </si>
   <si>
     <t>73,1%</t>
   </si>
   <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
   </si>
   <si>
     <t>73,37%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>14,44%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>85,05%</t>
   </si>
   <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>85,56%</t>
   </si>
   <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>8,31%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
   </si>
   <si>
     <t>89,45%</t>
   </si>
   <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
     <t>86,4%</t>
   </si>
   <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>85,94%</t>
   </si>
   <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>85,18%</t>
   </si>
   <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8800370B-7D84-47F0-B829-4FBAE4C710E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CF0D64-4C1D-4290-8F45-9B7E9B2F64C3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1676,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD4ADFD-93ED-4355-A23A-E12D630E0965}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7CFA70-AEB5-4052-87AD-87E731715198}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2125,13 +2131,13 @@
         <v>74664</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>125</v>
@@ -2140,13 +2146,13 @@
         <v>132368</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2167,13 @@
         <v>489182</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>456</v>
@@ -2176,13 +2182,13 @@
         <v>474476</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>902</v>
@@ -2191,13 +2197,13 @@
         <v>963658</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2271,13 @@
         <v>475008</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>500</v>
@@ -2280,13 +2286,13 @@
         <v>523532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>954</v>
@@ -2295,13 +2301,13 @@
         <v>998540</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2322,13 @@
         <v>2902610</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2826</v>
@@ -2331,13 +2337,13 @@
         <v>3008568</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>5587</v>
@@ -2346,13 +2352,13 @@
         <v>5911178</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
